--- a/examples/HFP_john+sally.xlsx
+++ b/examples/HFP_john+sally.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B8BF7C-F761-4BD9-840A-FD61B634D53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5AF70D-1BA2-484B-80AB-DD367AE4CE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="John" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>amount</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -1537,31 +1540,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B21F322-C874-4527-BDE8-92BF368BACC7}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1572,34 +1578,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE59C6C5-4877-46A4-A4CA-95BA9238C8B2}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/examples/HFP_john+sally.xlsx
+++ b/examples/HFP_john+sally.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5AF70D-1BA2-484B-80AB-DD367AE4CE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B6184-9A50-4C86-8A59-99657D08B27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="John" sheetId="1" r:id="rId1"/>
@@ -472,8 +472,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,7 +524,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -537,7 +537,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -550,7 +550,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -576,7 +576,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -589,7 +589,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B7" s="1">
         <v>100000</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -619,7 +619,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -632,7 +632,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -645,7 +645,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -658,7 +658,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -671,7 +671,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -684,7 +684,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -697,7 +697,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -723,7 +723,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -736,7 +736,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -749,7 +749,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -762,7 +762,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -775,7 +775,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -788,7 +788,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -801,7 +801,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -814,7 +814,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -840,7 +840,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -853,7 +853,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -866,7 +866,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -879,7 +879,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -892,7 +892,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -905,7 +905,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -918,7 +918,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -931,7 +931,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -944,7 +944,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -957,7 +957,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -970,7 +970,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -983,7 +983,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
   </sheetData>
@@ -996,8 +996,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1525,12 +1525,12 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2058</v>
+        <v>2059</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE59C6C5-4877-46A4-A4CA-95BA9238C8B2}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/examples/HFP_john+sally.xlsx
+++ b/examples/HFP_john+sally.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdlacasse/Owl/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B6184-9A50-4C86-8A59-99657D08B27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FBA47F-8C44-AA48-8001-79D776B97C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="John" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -476,24 +476,24 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -535,7 +535,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -548,7 +548,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -561,7 +561,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -574,7 +574,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -587,7 +587,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -604,7 +604,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -643,7 +643,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2031</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2032</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2033</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2034</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2035</v>
       </c>
@@ -721,7 +721,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2036</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2037</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2038</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2039</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2040</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2041</v>
       </c>
@@ -799,7 +799,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2042</v>
       </c>
@@ -812,7 +812,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2043</v>
       </c>
@@ -825,7 +825,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2044</v>
       </c>
@@ -838,7 +838,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2045</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2046</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2047</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2048</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2049</v>
       </c>
@@ -903,7 +903,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2050</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2051</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2052</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2053</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2054</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2055</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2056</v>
       </c>
@@ -996,24 +996,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -1081,7 +1081,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2031</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2032</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2033</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2034</v>
       </c>
@@ -1224,7 +1224,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2035</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2036</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2037</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2038</v>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2039</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2040</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2041</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2042</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2043</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2044</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2045</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2046</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2047</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2048</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2049</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2050</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2051</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2052</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2053</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2054</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2055</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2056</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2057</v>
       </c>
@@ -1523,12 +1523,12 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2058</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2059</v>
       </c>
@@ -1543,12 +1543,12 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1578,15 +1578,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE59C6C5-4877-46A4-A4CA-95BA9238C8B2}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1596,19 +1596,22 @@
       <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/examples/HFP_john+sally.xlsx
+++ b/examples/HFP_john+sally.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>other inc.</t>
+          <t>other inc</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>other inc.</t>
+          <t>other inc</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
